--- a/Capstone 2/Reports/Feature Summary Table.xlsx
+++ b/Capstone 2/Reports/Feature Summary Table.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlinewing/Desktop/Capstone 2/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F50843C-358E-C247-9D09-C06F69FED164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CDFF9F-3A16-8548-AE5E-EB6E73C089B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31840" yWindow="3920" windowWidth="28040" windowHeight="16680" xr2:uid="{85B19217-CAEE-F14D-B16A-7E7BD928DBBA}"/>
+    <workbookView xWindow="-340" yWindow="860" windowWidth="28040" windowHeight="16680" xr2:uid="{85B19217-CAEE-F14D-B16A-7E7BD928DBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="featurestablesummary" localSheetId="0">Sheet1!$A$1:$G$17</definedName>
+    <definedName name="featurestablesummary" localSheetId="0">Sheet1!$A$4:$G$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1E187D24-4CF1-F94A-9F7F-A53B15FBED75}" name="featurestablesummary" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/caitlinewing/Desktop/featurestablesummary.txt" tab="0" delimiter="|">
+    <textPr sourceFile="/Users/caitlinewing/Desktop/featurestablesummary.txt" tab="0" delimiter="|">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -54,12 +54,6 @@
     <t xml:space="preserve"> Values </t>
   </si>
   <si>
-    <t xml:space="preserve"> Continuous/Discrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amount of Nulls</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t># of Null</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +262,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF25151"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,11 +305,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,313 +637,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1066CCD-A1BB-844F-A395-4E4C7416A966}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4">
+        <v>388</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1">
-        <v>388</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
